--- a/data/CRF_long_data.xlsx
+++ b/data/CRF_long_data.xlsx
@@ -9388,8 +9388,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9407,11 +9419,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9743,8 +9767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -34810,6 +34834,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
